--- a/AgroTech/docs/Cronograma.xlsx
+++ b/AgroTech/docs/Cronograma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deselvolvimento\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programação\Github\Nova pasta\Projetos\AgroTech\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5146EA7-6929-4D86-A168-957CC1229C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818AFDC4-4969-4FC5-996D-E93AEF0B41C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{723D147D-1749-4C9B-8AB2-DEF91659253F}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18900" windowHeight="11055" xr2:uid="{723D147D-1749-4C9B-8AB2-DEF91659253F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -356,6 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -383,7 +384,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96888EC1-D007-4708-84FD-F01FDDC64F79}">
   <dimension ref="A1:AH46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH13" sqref="AH13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,81 +718,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
     </row>
     <row r="2" spans="1:34" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="17">
         <v>16</v>
       </c>
@@ -923,36 +923,36 @@
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1028,36 +1028,36 @@
       <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1233,7 +1233,7 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
-      <c r="AH13" s="27"/>
+      <c r="AH13" s="18"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1274,36 +1274,36 @@
       <c r="A15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="21"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1387,7 +1387,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="13"/>
+      <c r="J18" s="8"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1589,36 +1589,36 @@
       <c r="A24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">

--- a/AgroTech/docs/Cronograma.xlsx
+++ b/AgroTech/docs/Cronograma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programação\Github\Nova pasta\Projetos\AgroTech\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Projetos\AgroTech\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818AFDC4-4969-4FC5-996D-E93AEF0B41C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7688328-7F4B-421E-9CDD-DB232112F396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="18900" windowHeight="11055" xr2:uid="{723D147D-1749-4C9B-8AB2-DEF91659253F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{723D147D-1749-4C9B-8AB2-DEF91659253F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96888EC1-D007-4708-84FD-F01FDDC64F79}">
   <dimension ref="A1:AH46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19:M19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,9 +1423,9 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1461,8 +1461,8 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
       <c r="P20" s="13"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>

--- a/AgroTech/docs/Cronograma.xlsx
+++ b/AgroTech/docs/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Projetos\AgroTech\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7688328-7F4B-421E-9CDD-DB232112F396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DBF906-1E8A-4CCC-8639-F472F545ED51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{723D147D-1749-4C9B-8AB2-DEF91659253F}"/>
+    <workbookView xWindow="5955" yWindow="3945" windowWidth="21600" windowHeight="11385" xr2:uid="{723D147D-1749-4C9B-8AB2-DEF91659253F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -126,13 +126,13 @@
     <t>Tela Home + JS</t>
   </si>
   <si>
-    <t>Tela Operações Veiculos + JS</t>
-  </si>
-  <si>
     <t>Tela Manutenção Veícular + JS</t>
   </si>
   <si>
     <t>Implementar crud usuario</t>
+  </si>
+  <si>
+    <t>Tela Operações + JS</t>
   </si>
 </sst>
 </file>
@@ -329,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -384,6 +384,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96888EC1-D007-4708-84FD-F01FDDC64F79}">
   <dimension ref="A1:AH46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1097,7 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="8"/>
@@ -1482,7 +1483,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1517,7 +1518,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1551,7 +1552,7 @@
       <c r="AE22" s="1"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="1"/>

--- a/AgroTech/docs/Cronograma.xlsx
+++ b/AgroTech/docs/Cronograma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Projetos\AgroTech\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programação\Github\Nova pasta\Projetos\AgroTech\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DBF906-1E8A-4CCC-8639-F472F545ED51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AE03AE-BCFA-45F0-AE88-FF53CFE20B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="3945" windowWidth="21600" windowHeight="11385" xr2:uid="{723D147D-1749-4C9B-8AB2-DEF91659253F}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18900" windowHeight="11055" xr2:uid="{723D147D-1749-4C9B-8AB2-DEF91659253F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -357,6 +357,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -384,7 +385,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96888EC1-D007-4708-84FD-F01FDDC64F79}">
   <dimension ref="A1:AH46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,81 +719,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
     </row>
     <row r="2" spans="1:34" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="17">
         <v>16</v>
       </c>
@@ -924,36 +924,36 @@
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1029,36 +1029,36 @@
       <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1275,36 +1275,36 @@
       <c r="A15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1464,7 +1464,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-      <c r="P20" s="13"/>
+      <c r="P20" s="8"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -1500,9 +1500,9 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -1552,7 +1552,7 @@
       <c r="AE22" s="1"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="1"/>
@@ -1590,36 +1590,36 @@
       <c r="A24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="22"/>
-      <c r="AE24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="23"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">

--- a/AgroTech/docs/Cronograma.xlsx
+++ b/AgroTech/docs/Cronograma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programação\Github\Nova pasta\Projetos\AgroTech\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Projetos\AgroTech\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AE03AE-BCFA-45F0-AE88-FF53CFE20B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDA73A0-9D4D-4273-B3D4-6BDDD14168F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="18900" windowHeight="11055" xr2:uid="{723D147D-1749-4C9B-8AB2-DEF91659253F}"/>
+    <workbookView xWindow="5955" yWindow="3945" windowWidth="21600" windowHeight="11385" xr2:uid="{723D147D-1749-4C9B-8AB2-DEF91659253F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96888EC1-D007-4708-84FD-F01FDDC64F79}">
   <dimension ref="A1:AH46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG21" sqref="AG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,7 +1341,7 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -1411,7 +1411,7 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1446,7 +1446,7 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -1481,7 +1481,7 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1515,8 +1515,9 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG21" s="18"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
@@ -1538,9 +1539,9 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
@@ -1551,7 +1552,7 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>5</v>
       </c>
@@ -1586,7 +1587,7 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>19</v>
       </c>
@@ -1621,7 +1622,7 @@
       <c r="AD24" s="23"/>
       <c r="AE24" s="23"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1656,7 +1657,7 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
@@ -1691,7 +1692,7 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
     </row>
-    <row r="27" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>22</v>
       </c>
@@ -1726,7 +1727,7 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
     </row>
-    <row r="28" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
@@ -1761,7 +1762,7 @@
       <c r="AD28" s="13"/>
       <c r="AE28" s="1"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>

--- a/AgroTech/docs/Cronograma.xlsx
+++ b/AgroTech/docs/Cronograma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Projetos\AgroTech\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programação\Github\Nova pasta\Projetos\AgroTech\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDA73A0-9D4D-4273-B3D4-6BDDD14168F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AE03AE-BCFA-45F0-AE88-FF53CFE20B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="3945" windowWidth="21600" windowHeight="11385" xr2:uid="{723D147D-1749-4C9B-8AB2-DEF91659253F}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18900" windowHeight="11055" xr2:uid="{723D147D-1749-4C9B-8AB2-DEF91659253F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96888EC1-D007-4708-84FD-F01FDDC64F79}">
   <dimension ref="A1:AH46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG21" sqref="AG21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,7 +1341,7 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -1411,7 +1411,7 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1446,7 +1446,7 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -1481,7 +1481,7 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1515,9 +1515,8 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
-      <c r="AG21" s="18"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
@@ -1539,9 +1538,9 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
@@ -1552,7 +1551,7 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>5</v>
       </c>
@@ -1587,7 +1586,7 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>19</v>
       </c>
@@ -1622,7 +1621,7 @@
       <c r="AD24" s="23"/>
       <c r="AE24" s="23"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1657,7 +1656,7 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
@@ -1692,7 +1691,7 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>22</v>
       </c>
@@ -1727,7 +1726,7 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
     </row>
-    <row r="28" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
@@ -1762,7 +1761,7 @@
       <c r="AD28" s="13"/>
       <c r="AE28" s="1"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>

--- a/AgroTech/docs/Cronograma.xlsx
+++ b/AgroTech/docs/Cronograma.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programação\Github\Nova pasta\Projetos\AgroTech\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AE03AE-BCFA-45F0-AE88-FF53CFE20B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F7DFDB-00A2-4489-B5C3-08AB12ACA194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="18900" windowHeight="11055" xr2:uid="{723D147D-1749-4C9B-8AB2-DEF91659253F}"/>
   </bookViews>
@@ -200,7 +200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,6 +252,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -385,6 +391,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96888EC1-D007-4708-84FD-F01FDDC64F79}">
   <dimension ref="A1:AH46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,9 +1545,9 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
@@ -1576,7 +1583,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-      <c r="W23" s="13"/>
+      <c r="W23" s="29"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="1"/>
@@ -1647,7 +1654,7 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
-      <c r="X25" s="13"/>
+      <c r="X25" s="8"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
@@ -1682,7 +1689,7 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
-      <c r="X26" s="13"/>
+      <c r="X26" s="8"/>
       <c r="Y26" s="13"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
@@ -1795,6 +1802,9 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="13"/>
       <c r="AE29" s="13"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="L30" s="18"/>
     </row>
     <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
